--- a/ELM/SLR_arissetyawan_19_feb_2019.xlsx
+++ b/ELM/SLR_arissetyawan_19_feb_2019.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="1000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="1000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Pembobotan Input ELM (list)" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <author>arissetyawan</author>
   </authors>
   <commentList>
-    <comment ref="H4" authorId="0" shapeId="0">
+    <comment ref="G4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3522" uniqueCount="1771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3525" uniqueCount="1770">
   <si>
     <t>No</t>
   </si>
@@ -6191,9 +6191,6 @@
     <t>Colon Cancer</t>
   </si>
   <si>
-    <t>f</t>
-  </si>
-  <si>
     <t>gissete</t>
   </si>
   <si>
@@ -6309,7 +6306,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="27">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -6440,6 +6437,14 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -6489,20 +6494,64 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="24"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6587,6 +6636,12 @@
         <bgColor rgb="FFFFC000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -6652,7 +6707,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -6810,6 +6865,9 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -6835,28 +6893,31 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6868,41 +6929,62 @@
     <xf numFmtId="0" fontId="26" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7233,7 +7315,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>1</c:v>
@@ -10751,16 +10833,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>173159</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>47519</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>263769</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>68873</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>136908</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11261,7 +11343,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C43" workbookViewId="0">
+    <sheetView topLeftCell="C43" workbookViewId="0">
       <selection activeCell="N47" sqref="N47"/>
     </sheetView>
   </sheetViews>
@@ -12002,7 +12084,7 @@
         <v>120</v>
       </c>
       <c r="J9" s="26" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="K9" s="26" t="s">
         <v>121</v>
@@ -12227,86 +12309,86 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:34" s="71" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A12" s="63">
+    <row r="12" spans="1:34" s="72" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A12" s="64">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="65" t="s">
         <v>153</v>
       </c>
-      <c r="C12" s="65" t="s">
+      <c r="C12" s="66" t="s">
         <v>154</v>
       </c>
-      <c r="D12" s="63" t="s">
+      <c r="D12" s="64" t="s">
         <v>155</v>
       </c>
-      <c r="E12" s="63">
+      <c r="E12" s="64">
         <v>2013</v>
       </c>
-      <c r="F12" s="64" t="s">
+      <c r="F12" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="63" t="s">
+      <c r="G12" s="64" t="s">
         <v>156</v>
       </c>
-      <c r="H12" s="63" t="s">
+      <c r="H12" s="64" t="s">
         <v>157</v>
       </c>
-      <c r="I12" s="64" t="s">
+      <c r="I12" s="65" t="s">
         <v>158</v>
       </c>
-      <c r="J12" s="64" t="s">
+      <c r="J12" s="65" t="s">
         <v>159</v>
       </c>
-      <c r="K12" s="64"/>
-      <c r="L12" s="63" t="s">
+      <c r="K12" s="65"/>
+      <c r="L12" s="64" t="s">
         <v>160</v>
       </c>
-      <c r="M12" s="63" t="s">
+      <c r="M12" s="64" t="s">
         <v>161</v>
       </c>
-      <c r="N12" s="64" t="s">
+      <c r="N12" s="65" t="s">
         <v>162</v>
       </c>
-      <c r="O12" s="63">
+      <c r="O12" s="64">
         <v>0.44</v>
       </c>
-      <c r="P12" s="64" t="s">
+      <c r="P12" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="Q12" s="64"/>
-      <c r="R12" s="66" t="s">
+      <c r="Q12" s="65"/>
+      <c r="R12" s="67" t="s">
         <v>163</v>
       </c>
-      <c r="S12" s="67" t="s">
+      <c r="S12" s="68" t="s">
         <v>164</v>
       </c>
-      <c r="T12" s="68" t="s">
+      <c r="T12" s="69" t="s">
         <v>165</v>
       </c>
-      <c r="U12" s="64"/>
-      <c r="V12" s="64"/>
-      <c r="W12" s="64"/>
-      <c r="X12" s="64"/>
-      <c r="Y12" s="64"/>
-      <c r="Z12" s="64"/>
-      <c r="AA12" s="69" t="s">
+      <c r="U12" s="65"/>
+      <c r="V12" s="65"/>
+      <c r="W12" s="65"/>
+      <c r="X12" s="65"/>
+      <c r="Y12" s="65"/>
+      <c r="Z12" s="65"/>
+      <c r="AA12" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="AB12" s="63">
+      <c r="AB12" s="64">
         <v>0</v>
       </c>
-      <c r="AC12" s="63">
+      <c r="AC12" s="64">
         <v>5</v>
       </c>
       <c r="AD12" s="14"/>
-      <c r="AE12" s="66" t="s">
+      <c r="AE12" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="AF12" s="66"/>
-      <c r="AG12" s="66"/>
-      <c r="AH12" s="70" t="s">
+      <c r="AF12" s="67"/>
+      <c r="AG12" s="67"/>
+      <c r="AH12" s="71" t="s">
         <v>128</v>
       </c>
     </row>
@@ -14240,72 +14322,72 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:34" s="71" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A39" s="63">
+    <row r="39" spans="1:34" s="72" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A39" s="64">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B39" s="64" t="s">
+      <c r="B39" s="65" t="s">
+        <v>1747</v>
+      </c>
+      <c r="C39" s="66" t="s">
+        <v>1745</v>
+      </c>
+      <c r="D39" s="73" t="s">
+        <v>56</v>
+      </c>
+      <c r="E39" s="64">
+        <v>2016</v>
+      </c>
+      <c r="F39" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="G39" s="64" t="s">
+        <v>1751</v>
+      </c>
+      <c r="H39" s="64"/>
+      <c r="I39" s="74" t="s">
+        <v>1708</v>
+      </c>
+      <c r="J39" s="65" t="s">
         <v>1748</v>
       </c>
-      <c r="C39" s="65" t="s">
-        <v>1746</v>
-      </c>
-      <c r="D39" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="E39" s="63">
-        <v>2016</v>
-      </c>
-      <c r="F39" s="64" t="s">
-        <v>36</v>
-      </c>
-      <c r="G39" s="63" t="s">
+      <c r="K39" s="65"/>
+      <c r="L39" s="64" t="s">
+        <v>1749</v>
+      </c>
+      <c r="M39" s="64" t="s">
+        <v>1750</v>
+      </c>
+      <c r="N39" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="O39" s="64"/>
+      <c r="P39" s="65"/>
+      <c r="Q39" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="R39" s="67"/>
+      <c r="S39" s="64"/>
+      <c r="T39" s="65"/>
+      <c r="U39" s="65"/>
+      <c r="V39" s="65"/>
+      <c r="W39" s="65"/>
+      <c r="X39" s="65"/>
+      <c r="Y39" s="65"/>
+      <c r="Z39" s="65"/>
+      <c r="AA39" s="70"/>
+      <c r="AB39" s="64"/>
+      <c r="AC39" s="64"/>
+      <c r="AD39" s="14" t="s">
         <v>1752</v>
       </c>
-      <c r="H39" s="63"/>
-      <c r="I39" s="73" t="s">
-        <v>1708</v>
-      </c>
-      <c r="J39" s="64" t="s">
-        <v>1749</v>
-      </c>
-      <c r="K39" s="64"/>
-      <c r="L39" s="63" t="s">
-        <v>1750</v>
-      </c>
-      <c r="M39" s="63" t="s">
-        <v>1751</v>
-      </c>
-      <c r="N39" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="O39" s="63"/>
-      <c r="P39" s="64"/>
-      <c r="Q39" s="64" t="s">
-        <v>62</v>
-      </c>
-      <c r="R39" s="66"/>
-      <c r="S39" s="63"/>
-      <c r="T39" s="64"/>
-      <c r="U39" s="64"/>
-      <c r="V39" s="64"/>
-      <c r="W39" s="64"/>
-      <c r="X39" s="64"/>
-      <c r="Y39" s="64"/>
-      <c r="Z39" s="64"/>
-      <c r="AA39" s="69"/>
-      <c r="AB39" s="63"/>
-      <c r="AC39" s="63"/>
-      <c r="AD39" s="14" t="s">
-        <v>1753</v>
-      </c>
-      <c r="AE39" s="66"/>
-      <c r="AF39" s="74" t="s">
+      <c r="AE39" s="67"/>
+      <c r="AF39" s="75" t="s">
         <v>282</v>
       </c>
-      <c r="AG39" s="66"/>
-      <c r="AH39" s="70" t="s">
+      <c r="AG39" s="67"/>
+      <c r="AH39" s="71" t="s">
         <v>53</v>
       </c>
     </row>
@@ -14315,7 +14397,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="C40" s="14" t="s">
         <v>376</v>
@@ -14784,7 +14866,7 @@
         <v>429</v>
       </c>
       <c r="J47" s="18" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="K47" s="14"/>
       <c r="L47" s="14" t="s">
@@ -28756,7 +28838,7 @@
   <dimension ref="C5:E10"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D8" sqref="D8:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28768,16 +28850,16 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:5" ht="15.75">
-      <c r="C5" s="75"/>
-      <c r="D5" s="76" t="s">
+      <c r="C5" s="76"/>
+      <c r="D5" s="77" t="s">
         <v>1203</v>
       </c>
-      <c r="E5" s="76" t="s">
+      <c r="E5" s="77" t="s">
         <v>1204</v>
       </c>
     </row>
     <row r="6" spans="3:5" ht="15.75">
-      <c r="C6" s="75">
+      <c r="C6" s="76">
         <v>1</v>
       </c>
       <c r="D6" s="46" t="s">
@@ -28788,7 +28870,7 @@
       </c>
     </row>
     <row r="7" spans="3:5" ht="15.75">
-      <c r="C7" s="75">
+      <c r="C7" s="76">
         <f>1+C6</f>
         <v>2</v>
       </c>
@@ -28800,11 +28882,11 @@
       </c>
     </row>
     <row r="8" spans="3:5" ht="15.75">
-      <c r="C8" s="75">
+      <c r="C8" s="76">
         <f>1+C7</f>
         <v>3</v>
       </c>
-      <c r="D8" s="75" t="s">
+      <c r="D8" s="76" t="s">
         <v>1209</v>
       </c>
       <c r="E8" s="46" t="s">
@@ -28812,7 +28894,7 @@
       </c>
     </row>
     <row r="9" spans="3:5" ht="15.75">
-      <c r="C9" s="75">
+      <c r="C9" s="76">
         <f>1+C8</f>
         <v>4</v>
       </c>
@@ -28824,14 +28906,14 @@
       </c>
     </row>
     <row r="10" spans="3:5" ht="15.75">
-      <c r="C10" s="75">
+      <c r="C10" s="76">
         <f>1+C9</f>
         <v>5</v>
       </c>
       <c r="D10" s="47" t="s">
         <v>1213</v>
       </c>
-      <c r="E10" s="77"/>
+      <c r="E10" s="78"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -28841,997 +28923,1141 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:K48"/>
+  <dimension ref="B2:N48"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="31.5"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="78"/>
-    <col min="2" max="2" width="5.7109375" style="78"/>
-    <col min="3" max="3" width="30.42578125" style="80"/>
-    <col min="4" max="4" width="8.5703125" style="86"/>
-    <col min="5" max="10" width="18.140625" style="86" customWidth="1"/>
-    <col min="11" max="13" width="9.140625" style="78"/>
-    <col min="14" max="1034" width="8.5703125" style="78"/>
-    <col min="1035" max="16384" width="9.140625" style="78"/>
+    <col min="1" max="1" width="8.5703125" style="79"/>
+    <col min="2" max="2" width="5.7109375" style="79"/>
+    <col min="3" max="3" width="30.42578125" style="82"/>
+    <col min="4" max="4" width="8.5703125" style="88"/>
+    <col min="5" max="12" width="20.7109375" style="94" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" style="79" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="79"/>
+    <col min="15" max="1035" width="8.5703125" style="79"/>
+    <col min="1036" max="16384" width="9.140625" style="79"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11">
-      <c r="H3" s="86" t="s">
+    <row r="2" spans="2:14">
+      <c r="N2" s="47" t="s">
         <v>1730</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="76.5" customHeight="1">
-      <c r="B4" s="82" t="s">
+    <row r="3" spans="2:14">
+      <c r="G3" s="94" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" s="104" customFormat="1" ht="114" customHeight="1">
+      <c r="B4" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="83" t="s">
+      <c r="C4" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="87" t="s">
+      <c r="D4" s="102" t="s">
         <v>1689</v>
       </c>
-      <c r="E4" s="88" t="s">
+      <c r="E4" s="63" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F4" s="63" t="s">
+        <v>1208</v>
+      </c>
+      <c r="G4" s="87" t="s">
+        <v>1210</v>
+      </c>
+      <c r="H4" s="81" t="s">
+        <v>1212</v>
+      </c>
+      <c r="I4" s="63" t="s">
+        <v>1205</v>
+      </c>
+      <c r="J4" s="63" t="s">
         <v>1207</v>
       </c>
-      <c r="F4" s="89" t="s">
-        <v>1212</v>
-      </c>
-      <c r="G4" s="89" t="s">
+      <c r="K4" s="103" t="s">
+        <v>1209</v>
+      </c>
+      <c r="L4" s="81" t="s">
         <v>1211</v>
       </c>
-      <c r="H4" s="90" t="s">
-        <v>1210</v>
-      </c>
-      <c r="I4" s="85" t="s">
-        <v>1205</v>
-      </c>
-      <c r="J4" s="85" t="s">
-        <v>1208</v>
-      </c>
-      <c r="K4" s="78" t="s">
-        <v>1733</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11">
-      <c r="B5" s="82">
+      <c r="M4" s="100" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14">
+      <c r="B5" s="84">
         <v>1</v>
       </c>
-      <c r="C5" s="83" t="s">
-        <v>1744</v>
-      </c>
-      <c r="D5" s="92">
-        <f>SUM(E5:K5)</f>
+      <c r="C5" s="85" t="s">
+        <v>1743</v>
+      </c>
+      <c r="D5" s="90">
+        <f>SUM(F5:L5)</f>
         <v>1</v>
       </c>
-      <c r="E5" s="91">
+      <c r="E5" s="95"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="96">
         <v>1</v>
       </c>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="91"/>
-    </row>
-    <row r="6" spans="2:11">
-      <c r="B6" s="82">
+      <c r="K5" s="96"/>
+      <c r="L5" s="96"/>
+      <c r="M5" s="84"/>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="B6" s="84">
         <f>1+B5</f>
         <v>2</v>
       </c>
-      <c r="C6" s="83" t="s">
+      <c r="C6" s="85" t="s">
         <v>1695</v>
       </c>
-      <c r="D6" s="92">
-        <f>SUM(E6:K6)</f>
+      <c r="D6" s="90">
+        <f>SUM(F6:L6)</f>
         <v>1</v>
       </c>
-      <c r="E6" s="91">
+      <c r="E6" s="95"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="96">
         <v>1</v>
       </c>
-      <c r="F6" s="91"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="91"/>
-      <c r="I6" s="91"/>
-      <c r="J6" s="91"/>
-    </row>
-    <row r="7" spans="2:11">
-      <c r="B7" s="82">
+      <c r="K6" s="96"/>
+      <c r="L6" s="96"/>
+      <c r="M6" s="84"/>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="B7" s="84">
         <f t="shared" ref="B7:B47" si="0">1+B6</f>
         <v>3</v>
       </c>
-      <c r="C7" s="84" t="s">
-        <v>1737</v>
-      </c>
-      <c r="D7" s="92">
-        <f>SUM(E7:K7)</f>
+      <c r="C7" s="86" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D7" s="90">
+        <f>SUM(F7:L7)</f>
         <v>2</v>
       </c>
-      <c r="E7" s="91">
+      <c r="E7" s="95"/>
+      <c r="F7" s="96">
         <v>1</v>
       </c>
-      <c r="F7" s="91"/>
-      <c r="G7" s="91"/>
-      <c r="H7" s="91"/>
-      <c r="I7" s="91"/>
-      <c r="J7" s="91">
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="96">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="2:11">
-      <c r="B8" s="82">
+      <c r="K7" s="96"/>
+      <c r="L7" s="96"/>
+      <c r="M7" s="84"/>
+    </row>
+    <row r="8" spans="2:14">
+      <c r="B8" s="84">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C8" s="83" t="s">
+      <c r="C8" s="85" t="s">
         <v>1729</v>
       </c>
-      <c r="D8" s="92">
-        <f>SUM(E8:K8)</f>
+      <c r="D8" s="90">
+        <f>SUM(F8:L8)</f>
         <v>1</v>
       </c>
-      <c r="E8" s="91">
+      <c r="E8" s="95"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="96"/>
+      <c r="J8" s="96">
         <v>1</v>
       </c>
-      <c r="F8" s="91"/>
-      <c r="G8" s="91"/>
-      <c r="H8" s="91"/>
-      <c r="I8" s="91"/>
-      <c r="J8" s="91"/>
-    </row>
-    <row r="9" spans="2:11">
-      <c r="B9" s="82">
+      <c r="K8" s="96"/>
+      <c r="L8" s="96"/>
+      <c r="M8" s="84"/>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9" s="84">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C9" s="83" t="s">
+      <c r="C9" s="85" t="s">
         <v>1720</v>
       </c>
-      <c r="D9" s="92">
-        <f>SUM(E9:K9)</f>
+      <c r="D9" s="90">
+        <f>SUM(F9:L9)</f>
         <v>1</v>
       </c>
-      <c r="E9" s="91">
+      <c r="E9" s="95"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="96"/>
+      <c r="I9" s="96"/>
+      <c r="J9" s="96">
         <v>1</v>
       </c>
-      <c r="F9" s="91"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="91"/>
-      <c r="I9" s="91"/>
-      <c r="J9" s="91"/>
-    </row>
-    <row r="10" spans="2:11">
-      <c r="B10" s="82">
+      <c r="K9" s="96"/>
+      <c r="L9" s="96"/>
+      <c r="M9" s="84"/>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="B10" s="84">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C10" s="83" t="s">
+      <c r="C10" s="85" t="s">
         <v>1732</v>
       </c>
-      <c r="D10" s="92">
-        <f>SUM(E10:K10)</f>
+      <c r="D10" s="90">
+        <f>SUM(F10:L10)</f>
         <v>1</v>
       </c>
-      <c r="E10" s="91">
+      <c r="E10" s="95"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="96"/>
+      <c r="J10" s="96">
         <v>1</v>
       </c>
-      <c r="F10" s="91"/>
-      <c r="G10" s="91"/>
-      <c r="H10" s="91"/>
-      <c r="I10" s="91"/>
-      <c r="J10" s="91"/>
-    </row>
-    <row r="11" spans="2:11">
-      <c r="B11" s="82">
+      <c r="K10" s="96"/>
+      <c r="L10" s="96"/>
+      <c r="M10" s="84"/>
+    </row>
+    <row r="11" spans="2:14">
+      <c r="B11" s="84">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C11" s="83" t="s">
-        <v>1736</v>
-      </c>
-      <c r="D11" s="92">
-        <f>SUM(E11:K11)</f>
+      <c r="C11" s="85" t="s">
+        <v>1735</v>
+      </c>
+      <c r="D11" s="90">
+        <f>SUM(F11:L11)</f>
         <v>1</v>
       </c>
-      <c r="E11" s="91">
+      <c r="E11" s="95"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="96"/>
+      <c r="J11" s="96">
         <v>1</v>
       </c>
-      <c r="F11" s="91"/>
-      <c r="G11" s="91"/>
-      <c r="H11" s="91"/>
-      <c r="I11" s="91"/>
-      <c r="J11" s="91"/>
-    </row>
-    <row r="12" spans="2:11">
-      <c r="B12" s="82">
+      <c r="K11" s="96"/>
+      <c r="L11" s="96"/>
+      <c r="M11" s="84"/>
+    </row>
+    <row r="12" spans="2:14">
+      <c r="B12" s="84">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C12" s="84" t="s">
-        <v>1739</v>
-      </c>
-      <c r="D12" s="92">
-        <f>SUM(E12:K12)</f>
+      <c r="C12" s="105" t="s">
+        <v>1738</v>
+      </c>
+      <c r="D12" s="90">
+        <f>SUM(F12:L12)</f>
         <v>2</v>
       </c>
-      <c r="E12" s="91">
+      <c r="E12" s="95"/>
+      <c r="F12" s="96">
         <v>1</v>
       </c>
-      <c r="F12" s="91"/>
-      <c r="G12" s="91"/>
-      <c r="H12" s="91"/>
-      <c r="I12" s="91"/>
-      <c r="J12" s="91">
+      <c r="G12" s="96"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="96"/>
+      <c r="J12" s="96">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="2:11">
-      <c r="B13" s="82">
+      <c r="K12" s="96"/>
+      <c r="L12" s="96"/>
+      <c r="M12" s="84"/>
+    </row>
+    <row r="13" spans="2:14">
+      <c r="B13" s="84">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C13" s="84" t="s">
+      <c r="C13" s="86" t="s">
         <v>1719</v>
       </c>
-      <c r="D13" s="92">
-        <f>SUM(E13:K13)</f>
+      <c r="D13" s="90">
+        <f>SUM(F13:L13)</f>
         <v>2</v>
       </c>
-      <c r="E13" s="91">
+      <c r="E13" s="95"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="96"/>
+      <c r="H13" s="96"/>
+      <c r="I13" s="96">
         <v>1</v>
       </c>
-      <c r="F13" s="91"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="91">
+      <c r="J13" s="96">
         <v>1</v>
       </c>
-      <c r="J13" s="91"/>
-    </row>
-    <row r="14" spans="2:11" s="79" customFormat="1">
-      <c r="B14" s="81">
+      <c r="K13" s="96"/>
+      <c r="L13" s="96"/>
+      <c r="M13" s="84"/>
+    </row>
+    <row r="14" spans="2:14" s="80" customFormat="1">
+      <c r="B14" s="83">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C14" s="83" t="s">
+      <c r="C14" s="85" t="s">
         <v>1722</v>
       </c>
-      <c r="D14" s="92">
-        <f>SUM(E14:K14)</f>
+      <c r="D14" s="90">
+        <f>SUM(F14:L14)</f>
         <v>1</v>
       </c>
-      <c r="E14" s="91">
+      <c r="E14" s="95"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="96"/>
+      <c r="H14" s="96"/>
+      <c r="I14" s="96"/>
+      <c r="J14" s="96">
         <v>1</v>
       </c>
-      <c r="F14" s="91"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="91"/>
-      <c r="J14" s="91"/>
-      <c r="K14" s="78"/>
-    </row>
-    <row r="15" spans="2:11">
-      <c r="B15" s="82">
+      <c r="K14" s="96"/>
+      <c r="L14" s="96"/>
+      <c r="M14" s="83"/>
+    </row>
+    <row r="15" spans="2:14">
+      <c r="B15" s="84">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C15" s="83" t="s">
+      <c r="C15" s="85" t="s">
         <v>1721</v>
       </c>
-      <c r="D15" s="92">
+      <c r="D15" s="90">
         <v>1</v>
       </c>
-      <c r="E15" s="91">
+      <c r="E15" s="95"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="96"/>
+      <c r="H15" s="96"/>
+      <c r="I15" s="96"/>
+      <c r="J15" s="96">
         <v>1</v>
       </c>
-      <c r="F15" s="91"/>
-      <c r="G15" s="91"/>
-      <c r="H15" s="91"/>
-      <c r="I15" s="91"/>
-      <c r="J15" s="91"/>
-    </row>
-    <row r="16" spans="2:11">
-      <c r="B16" s="82">
+      <c r="K15" s="96"/>
+      <c r="L15" s="96"/>
+      <c r="M15" s="84"/>
+    </row>
+    <row r="16" spans="2:14">
+      <c r="B16" s="84">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C16" s="83" t="s">
-        <v>1734</v>
-      </c>
-      <c r="D16" s="92">
-        <f>SUM(E16:K16)</f>
+      <c r="C16" s="85" t="s">
+        <v>1733</v>
+      </c>
+      <c r="D16" s="90">
+        <f>SUM(F16:L16)</f>
         <v>1</v>
       </c>
-      <c r="E16" s="91">
+      <c r="E16" s="95"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="96"/>
+      <c r="I16" s="96"/>
+      <c r="J16" s="96">
         <v>1</v>
       </c>
-      <c r="F16" s="91"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="91"/>
-      <c r="I16" s="91"/>
-      <c r="J16" s="91"/>
-    </row>
-    <row r="17" spans="2:11">
-      <c r="B17" s="82">
+      <c r="K16" s="96"/>
+      <c r="L16" s="96"/>
+      <c r="M16" s="84"/>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="B17" s="84">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C17" s="83" t="s">
+      <c r="C17" s="85" t="s">
         <v>1717</v>
       </c>
-      <c r="D17" s="92">
-        <f>SUM(E17:K17)</f>
+      <c r="D17" s="90">
+        <f>SUM(F17:L17)</f>
         <v>1</v>
       </c>
-      <c r="E17" s="91"/>
-      <c r="F17" s="91">
+      <c r="E17" s="95"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96">
         <v>1</v>
       </c>
-      <c r="G17" s="91"/>
-      <c r="H17" s="91"/>
-      <c r="I17" s="91"/>
-      <c r="J17" s="91"/>
-    </row>
-    <row r="18" spans="2:11">
-      <c r="B18" s="82">
+      <c r="I17" s="96"/>
+      <c r="J17" s="96"/>
+      <c r="K17" s="96"/>
+      <c r="L17" s="96"/>
+      <c r="M17" s="84"/>
+    </row>
+    <row r="18" spans="2:13">
+      <c r="B18" s="84">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C18" s="83" t="s">
-        <v>1745</v>
-      </c>
-      <c r="D18" s="92">
-        <f>SUM(E18:K18)</f>
+      <c r="C18" s="85" t="s">
+        <v>1744</v>
+      </c>
+      <c r="D18" s="90">
+        <f>SUM(F18:L18)</f>
         <v>1</v>
       </c>
-      <c r="E18" s="91"/>
-      <c r="F18" s="91">
+      <c r="E18" s="95"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="96">
         <v>1</v>
       </c>
-      <c r="G18" s="91"/>
-      <c r="H18" s="91"/>
-      <c r="I18" s="91"/>
-      <c r="J18" s="91"/>
-    </row>
-    <row r="19" spans="2:11">
-      <c r="B19" s="82">
+      <c r="I18" s="96"/>
+      <c r="J18" s="96"/>
+      <c r="K18" s="96"/>
+      <c r="L18" s="96"/>
+      <c r="M18" s="84"/>
+    </row>
+    <row r="19" spans="2:13">
+      <c r="B19" s="84">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C19" s="83" t="s">
-        <v>1740</v>
-      </c>
-      <c r="D19" s="92">
-        <f>SUM(E19:K19)</f>
+      <c r="C19" s="85" t="s">
+        <v>1739</v>
+      </c>
+      <c r="D19" s="90">
+        <f>SUM(F19:L19)</f>
         <v>1</v>
       </c>
-      <c r="E19" s="91"/>
-      <c r="F19" s="91">
+      <c r="E19" s="95"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="96">
         <v>1</v>
       </c>
-      <c r="G19" s="91"/>
-      <c r="H19" s="91"/>
-      <c r="I19" s="91"/>
-      <c r="J19" s="91"/>
-    </row>
-    <row r="20" spans="2:11">
-      <c r="B20" s="82">
+      <c r="I19" s="96"/>
+      <c r="J19" s="96"/>
+      <c r="K19" s="96"/>
+      <c r="L19" s="96"/>
+      <c r="M19" s="84"/>
+    </row>
+    <row r="20" spans="2:13">
+      <c r="B20" s="84">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C20" s="83" t="s">
+      <c r="C20" s="85" t="s">
         <v>1726</v>
       </c>
-      <c r="D20" s="92">
-        <f>SUM(E20:K20)</f>
+      <c r="D20" s="90">
+        <f>SUM(F20:L20)</f>
         <v>1</v>
       </c>
-      <c r="E20" s="91"/>
-      <c r="F20" s="91">
+      <c r="E20" s="95"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="96"/>
+      <c r="H20" s="96">
         <v>1</v>
       </c>
-      <c r="G20" s="91"/>
-      <c r="H20" s="91"/>
-      <c r="I20" s="91"/>
-      <c r="J20" s="91"/>
-    </row>
-    <row r="21" spans="2:11">
-      <c r="B21" s="82">
+      <c r="I20" s="96"/>
+      <c r="J20" s="96"/>
+      <c r="K20" s="96"/>
+      <c r="L20" s="96"/>
+      <c r="M20" s="84"/>
+    </row>
+    <row r="21" spans="2:13">
+      <c r="B21" s="84">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C21" s="83" t="s">
+      <c r="C21" s="85" t="s">
         <v>1723</v>
       </c>
-      <c r="D21" s="92">
-        <f>SUM(E21:K21)</f>
+      <c r="D21" s="90">
+        <f>SUM(F21:L21)</f>
         <v>1</v>
       </c>
-      <c r="E21" s="91"/>
-      <c r="F21" s="91">
+      <c r="E21" s="95"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="96">
         <v>1</v>
       </c>
-      <c r="G21" s="91"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="91"/>
-      <c r="J21" s="91"/>
-    </row>
-    <row r="22" spans="2:11">
-      <c r="B22" s="82">
+      <c r="I21" s="96"/>
+      <c r="J21" s="96"/>
+      <c r="K21" s="96"/>
+      <c r="L21" s="96"/>
+      <c r="M21" s="84"/>
+    </row>
+    <row r="22" spans="2:13">
+      <c r="B22" s="84">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C22" s="83" t="s">
-        <v>1738</v>
-      </c>
-      <c r="D22" s="92">
-        <f>SUM(E22:K22)</f>
+      <c r="C22" s="85" t="s">
+        <v>1737</v>
+      </c>
+      <c r="D22" s="90">
+        <f>SUM(F22:L22)</f>
         <v>1</v>
       </c>
-      <c r="E22" s="91"/>
-      <c r="F22" s="91">
+      <c r="E22" s="95"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="96"/>
+      <c r="H22" s="96">
         <v>1</v>
       </c>
-      <c r="G22" s="91"/>
-      <c r="H22" s="91"/>
-      <c r="I22" s="91"/>
-      <c r="J22" s="91"/>
-    </row>
-    <row r="23" spans="2:11" ht="15.75">
-      <c r="B23" s="82">
+      <c r="I22" s="96"/>
+      <c r="J22" s="96"/>
+      <c r="K22" s="96"/>
+      <c r="L22" s="96"/>
+      <c r="M22" s="84"/>
+    </row>
+    <row r="23" spans="2:13">
+      <c r="B23" s="84">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C23" s="83" t="s">
+      <c r="C23" s="86" t="s">
         <v>1716</v>
       </c>
-      <c r="D23" s="92">
-        <f>SUM(E23:K23)</f>
+      <c r="D23" s="90">
+        <f>SUM(F23:L23)</f>
+        <v>2</v>
+      </c>
+      <c r="E23" s="95"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="96"/>
+      <c r="H23" s="96">
         <v>1</v>
       </c>
-      <c r="E23" s="91"/>
-      <c r="F23" s="91">
+      <c r="I23" s="96"/>
+      <c r="J23" s="96"/>
+      <c r="K23" s="97">
         <v>1</v>
       </c>
-      <c r="G23" s="93" t="s">
+      <c r="L23" s="97" t="s">
         <v>1730</v>
       </c>
-      <c r="H23" s="91"/>
-      <c r="I23" s="91"/>
-      <c r="J23" s="91"/>
-    </row>
-    <row r="24" spans="2:11">
-      <c r="B24" s="82">
+      <c r="M23" s="84"/>
+    </row>
+    <row r="24" spans="2:13">
+      <c r="B24" s="84">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C24" s="83" t="s">
-        <v>1735</v>
-      </c>
-      <c r="D24" s="92">
-        <f>SUM(E24:K24)</f>
+      <c r="C24" s="85" t="s">
+        <v>1734</v>
+      </c>
+      <c r="D24" s="90">
+        <f>SUM(F24:L24)</f>
         <v>1</v>
       </c>
-      <c r="E24" s="91"/>
-      <c r="F24" s="91">
+      <c r="E24" s="95"/>
+      <c r="F24" s="96"/>
+      <c r="G24" s="96"/>
+      <c r="H24" s="96">
         <v>1</v>
       </c>
-      <c r="G24" s="91"/>
-      <c r="H24" s="91"/>
-      <c r="I24" s="91"/>
-      <c r="J24" s="91"/>
-    </row>
-    <row r="25" spans="2:11">
-      <c r="B25" s="82">
+      <c r="I24" s="96"/>
+      <c r="J24" s="96"/>
+      <c r="K24" s="96"/>
+      <c r="L24" s="96"/>
+      <c r="M24" s="84"/>
+    </row>
+    <row r="25" spans="2:13">
+      <c r="B25" s="84">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C25" s="83" t="s">
+      <c r="C25" s="85" t="s">
         <v>1725</v>
       </c>
-      <c r="D25" s="92">
-        <f>SUM(E25:K25)</f>
+      <c r="D25" s="90">
+        <f>SUM(F25:L25)</f>
         <v>1</v>
       </c>
-      <c r="E25" s="91"/>
-      <c r="F25" s="91">
+      <c r="E25" s="95"/>
+      <c r="F25" s="96"/>
+      <c r="G25" s="96"/>
+      <c r="H25" s="96">
         <v>1</v>
       </c>
-      <c r="G25" s="91"/>
-      <c r="H25" s="91"/>
-      <c r="I25" s="91"/>
-      <c r="J25" s="91"/>
-    </row>
-    <row r="26" spans="2:11">
-      <c r="B26" s="82">
+      <c r="I25" s="96"/>
+      <c r="J25" s="96"/>
+      <c r="K25" s="96"/>
+      <c r="L25" s="96"/>
+      <c r="M25" s="84"/>
+    </row>
+    <row r="26" spans="2:13">
+      <c r="B26" s="84">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C26" s="84" t="s">
-        <v>1741</v>
-      </c>
-      <c r="D26" s="92">
-        <f>SUM(E26:K26)</f>
+      <c r="C26" s="105" t="s">
+        <v>1740</v>
+      </c>
+      <c r="D26" s="90">
+        <f>SUM(F26:L26)</f>
         <v>2</v>
       </c>
-      <c r="E26" s="91"/>
-      <c r="F26" s="91">
+      <c r="E26" s="95"/>
+      <c r="F26" s="96">
         <v>1</v>
       </c>
-      <c r="G26" s="91"/>
-      <c r="H26" s="91"/>
-      <c r="I26" s="91"/>
-      <c r="J26" s="91">
+      <c r="G26" s="96"/>
+      <c r="H26" s="96">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="2:11">
-      <c r="B27" s="82">
-        <f t="shared" si="0"/>
+      <c r="I26" s="96"/>
+      <c r="J26" s="96"/>
+      <c r="K26" s="96"/>
+      <c r="L26" s="96"/>
+      <c r="M26" s="84"/>
+    </row>
+    <row r="27" spans="2:13">
+      <c r="B27" s="84">
+        <f>1+B26</f>
         <v>23</v>
       </c>
-      <c r="C27" s="83" t="s">
+      <c r="C27" s="85" t="s">
         <v>1727</v>
       </c>
-      <c r="D27" s="92">
-        <f>SUM(E27:K27)</f>
+      <c r="D27" s="90">
+        <f>SUM(F27:L27)</f>
         <v>1</v>
       </c>
-      <c r="E27" s="91"/>
-      <c r="F27" s="91">
+      <c r="E27" s="95"/>
+      <c r="F27" s="96"/>
+      <c r="G27" s="96"/>
+      <c r="H27" s="96">
         <v>1</v>
       </c>
-      <c r="G27" s="91"/>
-      <c r="H27" s="91"/>
-      <c r="I27" s="91"/>
-      <c r="J27" s="91"/>
-    </row>
-    <row r="28" spans="2:11">
-      <c r="B28" s="82">
+      <c r="I27" s="96"/>
+      <c r="J27" s="96"/>
+      <c r="K27" s="96"/>
+      <c r="L27" s="96"/>
+      <c r="M27" s="84"/>
+    </row>
+    <row r="28" spans="2:13">
+      <c r="B28" s="84">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C28" s="83" t="s">
+      <c r="C28" s="85" t="s">
         <v>1724</v>
       </c>
-      <c r="D28" s="92">
-        <f>SUM(E28:K28)</f>
+      <c r="D28" s="90">
+        <f>SUM(F28:L28)</f>
         <v>1</v>
       </c>
-      <c r="E28" s="91"/>
-      <c r="F28" s="91">
+      <c r="E28" s="95"/>
+      <c r="F28" s="96"/>
+      <c r="G28" s="96"/>
+      <c r="H28" s="96">
         <v>1</v>
       </c>
-      <c r="G28" s="91"/>
-      <c r="H28" s="91"/>
-      <c r="I28" s="91"/>
-      <c r="J28" s="91"/>
-    </row>
-    <row r="29" spans="2:11">
-      <c r="B29" s="82">
+      <c r="I28" s="96"/>
+      <c r="J28" s="96"/>
+      <c r="K28" s="96"/>
+      <c r="L28" s="96"/>
+      <c r="M28" s="84"/>
+    </row>
+    <row r="29" spans="2:13">
+      <c r="B29" s="84">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C29" s="84" t="s">
-        <v>1743</v>
-      </c>
-      <c r="D29" s="91">
-        <f>SUM(E29:K29)</f>
+      <c r="C29" s="86" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D29" s="89">
+        <f>SUM(F29:L29)</f>
         <v>2</v>
       </c>
-      <c r="E29" s="91">
+      <c r="E29" s="96"/>
+      <c r="F29" s="96"/>
+      <c r="G29" s="96"/>
+      <c r="H29" s="96" t="s">
+        <v>1730</v>
+      </c>
+      <c r="I29" s="96"/>
+      <c r="J29" s="96">
         <v>1</v>
       </c>
-      <c r="F29" s="91" t="s">
-        <v>1730</v>
-      </c>
-      <c r="G29" s="91">
+      <c r="K29" s="96"/>
+      <c r="L29" s="96">
         <v>1</v>
       </c>
-      <c r="H29" s="91"/>
-      <c r="I29" s="91"/>
-      <c r="J29" s="91"/>
-    </row>
-    <row r="30" spans="2:11">
-      <c r="B30" s="82">
+      <c r="M29" s="84"/>
+    </row>
+    <row r="30" spans="2:13">
+      <c r="B30" s="84">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C30" s="84" t="s">
+      <c r="C30" s="86" t="s">
         <v>1728</v>
       </c>
-      <c r="D30" s="92">
-        <f>SUM(E30:K30)</f>
+      <c r="D30" s="90">
+        <f>SUM(F30:L30)</f>
         <v>2</v>
       </c>
-      <c r="E30" s="92">
+      <c r="E30" s="95"/>
+      <c r="F30" s="95"/>
+      <c r="G30" s="95"/>
+      <c r="H30" s="95"/>
+      <c r="I30" s="95"/>
+      <c r="J30" s="95">
         <v>1</v>
       </c>
-      <c r="F30" s="92"/>
-      <c r="G30" s="92">
+      <c r="K30" s="95"/>
+      <c r="L30" s="95">
         <v>1</v>
       </c>
-      <c r="H30" s="92"/>
-      <c r="I30" s="92"/>
-      <c r="J30" s="92"/>
-      <c r="K30" s="79"/>
-    </row>
-    <row r="31" spans="2:11">
-      <c r="B31" s="82">
+      <c r="M30" s="84"/>
+    </row>
+    <row r="31" spans="2:13">
+      <c r="B31" s="84">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C31" s="84" t="s">
+      <c r="C31" s="86" t="s">
         <v>1718</v>
       </c>
-      <c r="D31" s="94">
-        <f>SUM(E31:K31)</f>
+      <c r="D31" s="91">
+        <f>SUM(F31:L31)</f>
         <v>2</v>
       </c>
-      <c r="E31" s="91">
+      <c r="E31" s="98"/>
+      <c r="F31" s="96"/>
+      <c r="G31" s="96"/>
+      <c r="H31" s="96">
         <v>1</v>
       </c>
-      <c r="F31" s="91">
+      <c r="I31" s="96"/>
+      <c r="J31" s="96">
         <v>1</v>
       </c>
-      <c r="G31" s="91"/>
-      <c r="H31" s="91"/>
-      <c r="I31" s="91"/>
-      <c r="J31" s="91"/>
-    </row>
-    <row r="32" spans="2:11">
-      <c r="B32" s="82">
+      <c r="K31" s="96"/>
+      <c r="L31" s="96"/>
+      <c r="M31" s="84"/>
+    </row>
+    <row r="32" spans="2:13">
+      <c r="B32" s="84">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C32" s="84" t="s">
-        <v>1742</v>
-      </c>
-      <c r="D32" s="94">
-        <f>SUM(E32:K32)</f>
+      <c r="C32" s="86" t="s">
+        <v>1741</v>
+      </c>
+      <c r="D32" s="91">
+        <f>SUM(F32:L32)</f>
         <v>3</v>
       </c>
-      <c r="E32" s="91"/>
-      <c r="F32" s="91">
+      <c r="E32" s="98"/>
+      <c r="F32" s="96"/>
+      <c r="G32" s="96"/>
+      <c r="H32" s="96">
         <v>1</v>
       </c>
-      <c r="G32" s="91">
+      <c r="I32" s="96">
         <v>1</v>
       </c>
-      <c r="H32" s="91"/>
-      <c r="I32" s="91">
+      <c r="J32" s="96"/>
+      <c r="K32" s="96"/>
+      <c r="L32" s="96">
         <v>1</v>
       </c>
-      <c r="J32" s="91"/>
-    </row>
-    <row r="33" spans="2:10">
-      <c r="B33" s="95">
+      <c r="M32" s="84"/>
+    </row>
+    <row r="33" spans="2:13">
+      <c r="B33" s="92">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C33" s="83" t="s">
-        <v>1756</v>
-      </c>
-      <c r="D33" s="96">
-        <f t="shared" ref="D33:D48" si="1">SUM(E33:K33)</f>
+      <c r="C33" s="85" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D33" s="93">
+        <f>SUM(F33:L33)</f>
         <v>1</v>
       </c>
-      <c r="E33" s="91"/>
-      <c r="F33" s="91"/>
-      <c r="G33" s="91"/>
-      <c r="H33" s="91"/>
-      <c r="I33" s="91">
+      <c r="E33" s="99"/>
+      <c r="F33" s="96"/>
+      <c r="G33" s="96"/>
+      <c r="H33" s="96"/>
+      <c r="I33" s="96">
         <v>1</v>
       </c>
-      <c r="J33" s="91"/>
-    </row>
-    <row r="34" spans="2:10">
-      <c r="B34" s="95">
+      <c r="J33" s="96"/>
+      <c r="K33" s="96"/>
+      <c r="L33" s="96"/>
+      <c r="M33" s="84"/>
+    </row>
+    <row r="34" spans="2:13">
+      <c r="B34" s="92">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C34" s="83" t="s">
-        <v>1757</v>
-      </c>
-      <c r="D34" s="96">
-        <f t="shared" si="1"/>
+      <c r="C34" s="85" t="s">
+        <v>1756</v>
+      </c>
+      <c r="D34" s="93">
+        <f>SUM(F34:L34)</f>
         <v>1</v>
       </c>
-      <c r="E34" s="91"/>
-      <c r="F34" s="91"/>
-      <c r="G34" s="91"/>
-      <c r="H34" s="91"/>
-      <c r="I34" s="91">
+      <c r="E34" s="99"/>
+      <c r="F34" s="96"/>
+      <c r="G34" s="96"/>
+      <c r="H34" s="96"/>
+      <c r="I34" s="96">
         <v>1</v>
       </c>
-      <c r="J34" s="91"/>
-    </row>
-    <row r="35" spans="2:10">
-      <c r="B35" s="95">
+      <c r="J34" s="96"/>
+      <c r="K34" s="96"/>
+      <c r="L34" s="96"/>
+      <c r="M34" s="84"/>
+    </row>
+    <row r="35" spans="2:13">
+      <c r="B35" s="92">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="C35" s="84" t="s">
-        <v>1758</v>
-      </c>
-      <c r="D35" s="96">
-        <f t="shared" si="1"/>
+      <c r="C35" s="86" t="s">
+        <v>1757</v>
+      </c>
+      <c r="D35" s="93">
+        <f>SUM(F35:L35)</f>
         <v>2</v>
       </c>
-      <c r="E35" s="91"/>
-      <c r="F35" s="91"/>
-      <c r="G35" s="91"/>
-      <c r="H35" s="91"/>
-      <c r="I35" s="91">
+      <c r="E35" s="99"/>
+      <c r="F35" s="96">
         <v>1</v>
       </c>
-      <c r="J35" s="91">
+      <c r="G35" s="96"/>
+      <c r="H35" s="96"/>
+      <c r="I35" s="96">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="2:10">
-      <c r="B36" s="95">
+      <c r="J35" s="96"/>
+      <c r="K35" s="96"/>
+      <c r="L35" s="96"/>
+      <c r="M35" s="84"/>
+    </row>
+    <row r="36" spans="2:13">
+      <c r="B36" s="92">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="C36" s="83" t="s">
-        <v>1759</v>
-      </c>
-      <c r="D36" s="96">
-        <f t="shared" si="1"/>
+      <c r="C36" s="85" t="s">
+        <v>1758</v>
+      </c>
+      <c r="D36" s="93">
+        <f>SUM(F36:L36)</f>
         <v>1</v>
       </c>
-      <c r="E36" s="91"/>
-      <c r="F36" s="91"/>
-      <c r="G36" s="91"/>
-      <c r="H36" s="91"/>
-      <c r="I36" s="91">
+      <c r="E36" s="99"/>
+      <c r="F36" s="96"/>
+      <c r="G36" s="96"/>
+      <c r="H36" s="96"/>
+      <c r="I36" s="96">
         <v>1</v>
       </c>
-      <c r="J36" s="91"/>
-    </row>
-    <row r="37" spans="2:10">
-      <c r="B37" s="95">
+      <c r="J36" s="96"/>
+      <c r="K36" s="96"/>
+      <c r="L36" s="96"/>
+      <c r="M36" s="84"/>
+    </row>
+    <row r="37" spans="2:13">
+      <c r="B37" s="92">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="C37" s="83" t="s">
-        <v>1760</v>
-      </c>
-      <c r="D37" s="96">
-        <f t="shared" si="1"/>
+      <c r="C37" s="85" t="s">
+        <v>1759</v>
+      </c>
+      <c r="D37" s="93">
+        <f>SUM(F37:L37)</f>
         <v>1</v>
       </c>
-      <c r="E37" s="91"/>
-      <c r="F37" s="91"/>
-      <c r="G37" s="91"/>
-      <c r="H37" s="91"/>
-      <c r="I37" s="91">
+      <c r="E37" s="99"/>
+      <c r="F37" s="96"/>
+      <c r="G37" s="96"/>
+      <c r="H37" s="96"/>
+      <c r="I37" s="96">
         <v>1</v>
       </c>
-      <c r="J37" s="91"/>
-    </row>
-    <row r="38" spans="2:10">
-      <c r="B38" s="95">
+      <c r="J37" s="96"/>
+      <c r="K37" s="96"/>
+      <c r="L37" s="96"/>
+      <c r="M37" s="84"/>
+    </row>
+    <row r="38" spans="2:13">
+      <c r="B38" s="92">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="C38" s="83" t="s">
-        <v>1761</v>
-      </c>
-      <c r="D38" s="96">
-        <f t="shared" si="1"/>
+      <c r="C38" s="85" t="s">
+        <v>1760</v>
+      </c>
+      <c r="D38" s="93">
+        <f>SUM(F38:L38)</f>
         <v>1</v>
       </c>
-      <c r="E38" s="91"/>
-      <c r="F38" s="91"/>
-      <c r="G38" s="91"/>
-      <c r="H38" s="91"/>
-      <c r="I38" s="91">
+      <c r="E38" s="99"/>
+      <c r="F38" s="96"/>
+      <c r="G38" s="96"/>
+      <c r="H38" s="96"/>
+      <c r="I38" s="96">
         <v>1</v>
       </c>
-      <c r="J38" s="91"/>
-    </row>
-    <row r="39" spans="2:10">
-      <c r="B39" s="95">
+      <c r="J38" s="96"/>
+      <c r="K38" s="96"/>
+      <c r="L38" s="96"/>
+      <c r="M38" s="84"/>
+    </row>
+    <row r="39" spans="2:13">
+      <c r="B39" s="92">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="C39" s="83" t="s">
-        <v>1762</v>
-      </c>
-      <c r="D39" s="96">
-        <f t="shared" si="1"/>
+      <c r="C39" s="85" t="s">
+        <v>1761</v>
+      </c>
+      <c r="D39" s="93">
+        <f>SUM(F39:L39)</f>
         <v>1</v>
       </c>
-      <c r="E39" s="91"/>
-      <c r="F39" s="91"/>
-      <c r="G39" s="91"/>
-      <c r="H39" s="91"/>
-      <c r="I39" s="91">
+      <c r="E39" s="99"/>
+      <c r="F39" s="96"/>
+      <c r="G39" s="96"/>
+      <c r="H39" s="96"/>
+      <c r="I39" s="96">
         <v>1</v>
       </c>
-      <c r="J39" s="91"/>
-    </row>
-    <row r="40" spans="2:10">
-      <c r="B40" s="95">
+      <c r="J39" s="96"/>
+      <c r="K39" s="96"/>
+      <c r="L39" s="96"/>
+      <c r="M39" s="84"/>
+    </row>
+    <row r="40" spans="2:13">
+      <c r="B40" s="92">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="C40" s="83" t="s">
-        <v>1763</v>
-      </c>
-      <c r="D40" s="96">
-        <f t="shared" si="1"/>
+      <c r="C40" s="85" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D40" s="93">
+        <f>SUM(F40:L40)</f>
         <v>1</v>
       </c>
-      <c r="E40" s="91"/>
-      <c r="F40" s="91"/>
-      <c r="G40" s="91"/>
-      <c r="H40" s="91"/>
-      <c r="I40" s="91">
+      <c r="E40" s="99"/>
+      <c r="F40" s="96"/>
+      <c r="G40" s="96"/>
+      <c r="H40" s="96"/>
+      <c r="I40" s="96">
         <v>1</v>
       </c>
-      <c r="J40" s="91"/>
-    </row>
-    <row r="41" spans="2:10">
-      <c r="B41" s="95">
+      <c r="J40" s="96"/>
+      <c r="K40" s="96"/>
+      <c r="L40" s="96"/>
+      <c r="M40" s="84"/>
+    </row>
+    <row r="41" spans="2:13">
+      <c r="B41" s="92">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="C41" s="83" t="s">
-        <v>1764</v>
-      </c>
-      <c r="D41" s="96">
-        <f t="shared" si="1"/>
+      <c r="C41" s="85" t="s">
+        <v>1763</v>
+      </c>
+      <c r="D41" s="93">
+        <f>SUM(F41:L41)</f>
         <v>1</v>
       </c>
-      <c r="E41" s="91"/>
-      <c r="F41" s="91"/>
-      <c r="G41" s="91"/>
-      <c r="H41" s="91"/>
-      <c r="I41" s="91">
+      <c r="E41" s="99"/>
+      <c r="F41" s="96"/>
+      <c r="G41" s="96"/>
+      <c r="H41" s="96"/>
+      <c r="I41" s="96">
         <v>1</v>
       </c>
-      <c r="J41" s="91"/>
-    </row>
-    <row r="42" spans="2:10">
-      <c r="B42" s="82">
+      <c r="J41" s="96"/>
+      <c r="K41" s="96"/>
+      <c r="L41" s="96"/>
+      <c r="M41" s="84"/>
+    </row>
+    <row r="42" spans="2:13">
+      <c r="B42" s="84">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="C42" s="83" t="s">
-        <v>1765</v>
-      </c>
-      <c r="D42" s="96">
-        <f t="shared" si="1"/>
+      <c r="C42" s="85" t="s">
+        <v>1764</v>
+      </c>
+      <c r="D42" s="93">
+        <f>SUM(F42:L42)</f>
         <v>1</v>
       </c>
-      <c r="E42" s="91"/>
-      <c r="F42" s="91"/>
-      <c r="G42" s="91"/>
-      <c r="H42" s="91"/>
-      <c r="I42" s="91">
+      <c r="E42" s="99"/>
+      <c r="F42" s="96"/>
+      <c r="G42" s="96"/>
+      <c r="H42" s="96"/>
+      <c r="I42" s="96">
         <v>1</v>
       </c>
-      <c r="J42" s="91"/>
-    </row>
-    <row r="43" spans="2:10">
-      <c r="B43" s="82">
+      <c r="J42" s="96"/>
+      <c r="K42" s="96"/>
+      <c r="L42" s="96"/>
+      <c r="M42" s="84"/>
+    </row>
+    <row r="43" spans="2:13">
+      <c r="B43" s="84">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="C43" s="83" t="s">
-        <v>1766</v>
-      </c>
-      <c r="D43" s="96">
-        <f t="shared" si="1"/>
+      <c r="C43" s="85" t="s">
+        <v>1765</v>
+      </c>
+      <c r="D43" s="93">
+        <f>SUM(F43:L43)</f>
         <v>1</v>
       </c>
-      <c r="E43" s="91"/>
-      <c r="F43" s="91"/>
-      <c r="G43" s="91"/>
-      <c r="H43" s="91"/>
-      <c r="I43" s="91"/>
-      <c r="J43" s="91">
+      <c r="E43" s="99"/>
+      <c r="F43" s="96">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="2:10">
-      <c r="B44" s="82">
+      <c r="G43" s="96"/>
+      <c r="H43" s="96"/>
+      <c r="I43" s="96"/>
+      <c r="J43" s="96"/>
+      <c r="K43" s="96"/>
+      <c r="L43" s="96"/>
+      <c r="M43" s="84"/>
+    </row>
+    <row r="44" spans="2:13">
+      <c r="B44" s="84">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="C44" s="83" t="s">
-        <v>1767</v>
-      </c>
-      <c r="D44" s="96">
-        <f t="shared" si="1"/>
+      <c r="C44" s="85" t="s">
+        <v>1766</v>
+      </c>
+      <c r="D44" s="93">
+        <f>SUM(F44:L44)</f>
         <v>1</v>
       </c>
-      <c r="E44" s="91"/>
-      <c r="F44" s="91"/>
-      <c r="G44" s="91"/>
-      <c r="H44" s="91"/>
-      <c r="I44" s="91"/>
-      <c r="J44" s="91">
+      <c r="E44" s="99"/>
+      <c r="F44" s="96">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="2:10">
-      <c r="B45" s="95">
+      <c r="G44" s="96"/>
+      <c r="H44" s="96"/>
+      <c r="I44" s="96"/>
+      <c r="J44" s="96"/>
+      <c r="K44" s="96"/>
+      <c r="L44" s="96"/>
+      <c r="M44" s="84"/>
+    </row>
+    <row r="45" spans="2:13">
+      <c r="B45" s="92">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="C45" s="83" t="s">
-        <v>1768</v>
-      </c>
-      <c r="D45" s="94">
-        <f t="shared" si="1"/>
+      <c r="C45" s="85" t="s">
+        <v>1767</v>
+      </c>
+      <c r="D45" s="91">
+        <f>SUM(F45:L45)</f>
         <v>1</v>
       </c>
-      <c r="E45" s="91"/>
-      <c r="F45" s="91"/>
-      <c r="G45" s="91"/>
-      <c r="H45" s="91"/>
-      <c r="I45" s="91"/>
-      <c r="J45" s="91">
+      <c r="E45" s="98"/>
+      <c r="F45" s="96">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="2:10">
-      <c r="B46" s="95">
+      <c r="G45" s="96"/>
+      <c r="H45" s="96"/>
+      <c r="I45" s="96"/>
+      <c r="J45" s="96"/>
+      <c r="K45" s="96"/>
+      <c r="L45" s="96"/>
+      <c r="M45" s="84"/>
+    </row>
+    <row r="46" spans="2:13">
+      <c r="B46" s="92">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="C46" s="83" t="s">
-        <v>1769</v>
-      </c>
-      <c r="D46" s="91">
-        <f t="shared" si="1"/>
+      <c r="C46" s="85" t="s">
+        <v>1768</v>
+      </c>
+      <c r="D46" s="89">
+        <f>SUM(F46:L46)</f>
         <v>1</v>
       </c>
-      <c r="E46" s="91"/>
-      <c r="F46" s="91"/>
-      <c r="G46" s="91"/>
-      <c r="H46" s="91"/>
-      <c r="I46" s="91"/>
-      <c r="J46" s="91">
+      <c r="E46" s="96"/>
+      <c r="F46" s="96">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="2:10">
-      <c r="B47" s="95">
+      <c r="G46" s="96"/>
+      <c r="H46" s="96"/>
+      <c r="I46" s="96"/>
+      <c r="J46" s="96"/>
+      <c r="K46" s="96"/>
+      <c r="L46" s="96"/>
+      <c r="M46" s="84"/>
+    </row>
+    <row r="47" spans="2:13">
+      <c r="B47" s="92">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="C47" s="83" t="s">
-        <v>1770</v>
-      </c>
-      <c r="D47" s="91">
-        <f t="shared" si="1"/>
+      <c r="C47" s="85" t="s">
+        <v>1769</v>
+      </c>
+      <c r="D47" s="89">
+        <f>SUM(F47:L47)</f>
         <v>1</v>
       </c>
-      <c r="E47" s="91"/>
-      <c r="F47" s="91"/>
-      <c r="G47" s="91"/>
-      <c r="H47" s="91"/>
-      <c r="I47" s="91"/>
-      <c r="J47" s="91">
+      <c r="E47" s="96"/>
+      <c r="F47" s="96">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="2:10">
-      <c r="C48" s="83"/>
-      <c r="D48" s="91"/>
-      <c r="E48" s="91"/>
-      <c r="F48" s="91"/>
-      <c r="G48" s="91"/>
-      <c r="H48" s="91"/>
-      <c r="I48" s="91"/>
-      <c r="J48" s="91"/>
+      <c r="G47" s="96"/>
+      <c r="H47" s="96"/>
+      <c r="I47" s="96"/>
+      <c r="J47" s="96"/>
+      <c r="K47" s="96"/>
+      <c r="L47" s="96"/>
+      <c r="M47" s="84"/>
+    </row>
+    <row r="48" spans="2:13">
+      <c r="C48" s="85"/>
+      <c r="D48" s="89"/>
+      <c r="E48" s="96"/>
+      <c r="F48" s="96"/>
+      <c r="G48" s="96"/>
+      <c r="H48" s="96"/>
+      <c r="I48" s="96"/>
+      <c r="J48" s="96"/>
+      <c r="K48" s="96"/>
+      <c r="L48" s="96"/>
+      <c r="M48" s="84"/>
     </row>
   </sheetData>
   <sortState ref="C5:K32">
